--- a/figs/s1/chapter1_statistics.xlsx
+++ b/figs/s1/chapter1_statistics.xlsx
@@ -528,11 +528,11 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>تعداد مشمولین</t>
+          <t>تعداد مشمولین (بالای 100 میلیون ریال)</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>387</v>
+        <v>216</v>
       </c>
     </row>
     <row r="11">
@@ -542,7 +542,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>24.39693488372093</v>
+        <v>43.70863333333333</v>
       </c>
     </row>
     <row r="12">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.6912</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13">
@@ -562,7 +562,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>144.2285460386504</v>
+        <v>191.0462448264474</v>
       </c>
     </row>
     <row r="14">
@@ -572,7 +572,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>62.9715907253059</v>
+        <v>62.97525253719265</v>
       </c>
     </row>
     <row r="15">
@@ -582,7 +582,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>94.70869482079432</v>
+        <v>89.12374163558334</v>
       </c>
     </row>
     <row r="16">
@@ -592,7 +592,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.9166933791461296</v>
+        <v>-0.8508552469867828</v>
       </c>
     </row>
   </sheetData>
